--- a/car attributes up to count 70.xlsx
+++ b/car attributes up to count 70.xlsx
@@ -27,21 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
-  <si>
-    <t>make</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>drive</t>
-  </si>
-  <si>
     <t>engine</t>
-  </si>
-  <si>
-    <t>mile</t>
   </si>
   <si>
     <t>price</t>
@@ -551,367 +542,352 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A71"/>
+  <dimension ref="A2:A71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
